--- a/KM5c_data/ODP_Site_1081.xlsx
+++ b/KM5c_data/ODP_Site_1081.xlsx
@@ -549,13 +549,13 @@
         </is>
       </c>
       <c r="P2">
-        <v>18.0662202</v>
+        <v>16.09</v>
       </c>
       <c r="Q2">
-        <v>6.233779800000001</v>
+        <v>8.211365169949005</v>
       </c>
       <c r="R2">
-        <v>5.660454609999999</v>
+        <v>7.638039979949003</v>
       </c>
       <c r="S2">
         <v>5.148484848484848</v>
